--- a/GBDS JANUARY FILES 2026/SCRR CALCULATOR - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SCRR CALCULATOR - JANUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B811BFF9-858E-42E0-A53D-8AD33FB8C0D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806ABF6E-C740-4A24-9D78-DEC5915DBB00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(January 2025)" sheetId="814" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5387" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5397" uniqueCount="174">
   <si>
     <t>GUILLERMO BEVERAGE DISTRIBUTION SERVICES</t>
   </si>
@@ -737,6 +737,18 @@
   </si>
   <si>
     <t>FB BOTT.</t>
+  </si>
+  <si>
+    <t>144962</t>
+  </si>
+  <si>
+    <t>140911</t>
+  </si>
+  <si>
+    <t>47909</t>
+  </si>
+  <si>
+    <t>42941</t>
   </si>
 </sst>
 </file>
@@ -20345,8 +20357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7F35C8-4A98-49E5-AB0F-A1AB14D62548}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J5"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25551,7 +25563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344146DD-CFF6-4F84-82C8-DDA2C84A40EC}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J5"/>
     </sheetView>
   </sheetViews>
@@ -28963,7 +28975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDF9B40-1E74-404F-A7FA-39AAF57DE093}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J5"/>
     </sheetView>
   </sheetViews>
@@ -29085,10 +29097,12 @@
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="84"/>
+      <c r="C6" s="84">
+        <v>523</v>
+      </c>
       <c r="D6" s="13">
         <f t="shared" ref="D6:D28" si="1">C6*L6</f>
-        <v>0</v>
+        <v>398003</v>
       </c>
       <c r="F6" s="115" t="s">
         <v>16</v>
@@ -29121,10 +29135,12 @@
       <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="84"/>
+      <c r="C7" s="84">
+        <v>2</v>
+      </c>
       <c r="D7" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1562</v>
       </c>
       <c r="F7" s="116"/>
       <c r="G7" s="120"/>
@@ -29145,10 +29161,12 @@
       <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="84"/>
+      <c r="C8" s="84">
+        <v>2</v>
+      </c>
       <c r="D8" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2186</v>
       </c>
       <c r="F8" s="123" t="s">
         <v>21</v>
@@ -29173,10 +29191,12 @@
       <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="84"/>
+      <c r="C9" s="84">
+        <v>10</v>
+      </c>
       <c r="D9" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7330</v>
       </c>
       <c r="F9" s="116"/>
       <c r="G9" s="128"/>
@@ -29291,10 +29311,12 @@
       <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="84">
+        <v>13</v>
+      </c>
       <c r="D13" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3991</v>
       </c>
       <c r="F13" s="137" t="s">
         <v>36</v>
@@ -29302,7 +29324,7 @@
       <c r="G13" s="138"/>
       <c r="H13" s="139">
         <f>D29</f>
-        <v>0</v>
+        <v>416738</v>
       </c>
       <c r="I13" s="140"/>
       <c r="J13" s="141"/>
@@ -29325,10 +29347,12 @@
       <c r="B14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="84"/>
+      <c r="C14" s="84">
+        <v>3</v>
+      </c>
       <c r="D14" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F14" s="142" t="s">
         <v>39</v>
@@ -29336,7 +29360,7 @@
       <c r="G14" s="143"/>
       <c r="H14" s="144">
         <f>D54</f>
-        <v>0</v>
+        <v>113626.5</v>
       </c>
       <c r="I14" s="145"/>
       <c r="J14" s="146"/>
@@ -29374,7 +29398,7 @@
       <c r="G15" s="138"/>
       <c r="H15" s="148">
         <f>H13-H14</f>
-        <v>0</v>
+        <v>303111.5</v>
       </c>
       <c r="I15" s="149"/>
       <c r="J15" s="150"/>
@@ -29412,7 +29436,10 @@
       <c r="G16" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="151"/>
+      <c r="H16" s="151">
+        <f>2586</f>
+        <v>2586</v>
+      </c>
       <c r="I16" s="151"/>
       <c r="J16" s="151"/>
       <c r="L16" s="6">
@@ -29533,10 +29560,12 @@
       <c r="B20" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="84"/>
+      <c r="C20" s="84">
+        <v>1</v>
+      </c>
       <c r="D20" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1175</v>
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="70" t="s">
@@ -29563,10 +29592,12 @@
       <c r="B21" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="84"/>
+      <c r="C21" s="84">
+        <v>1</v>
+      </c>
       <c r="D21" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="F21" s="69" t="s">
         <v>99</v>
@@ -29629,12 +29660,14 @@
     <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="113"/>
       <c r="B23" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="84"/>
+        <v>169</v>
+      </c>
+      <c r="C23" s="84">
+        <v>12</v>
+      </c>
       <c r="D23" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="F23" s="77"/>
       <c r="G23" s="79"/>
@@ -29642,7 +29675,8 @@
       <c r="I23" s="228"/>
       <c r="J23" s="228"/>
       <c r="L23" s="47">
-        <v>1667</v>
+        <f>872/24+1.5</f>
+        <v>37.833333333333336</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" t="s">
@@ -29692,12 +29726,14 @@
     <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="113"/>
       <c r="B25" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="84"/>
+        <v>168</v>
+      </c>
+      <c r="C25" s="84">
+        <v>12</v>
+      </c>
       <c r="D25" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="F25" s="60" t="s">
         <v>100</v>
@@ -29711,8 +29747,8 @@
       <c r="I25" s="178"/>
       <c r="J25" s="179"/>
       <c r="L25" s="47">
-        <f>1052+120</f>
-        <v>1172</v>
+        <f>1050/24+1.5</f>
+        <v>45.25</v>
       </c>
       <c r="O25" t="s">
         <v>51</v>
@@ -29794,18 +29830,21 @@
       <c r="B28" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="84"/>
+      <c r="C28" s="84">
+        <v>1</v>
+      </c>
       <c r="D28" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="F28" s="93"/>
       <c r="G28" s="61"/>
       <c r="H28" s="186"/>
       <c r="I28" s="187"/>
       <c r="J28" s="188"/>
-      <c r="L28" s="7">
-        <v>785</v>
+      <c r="L28" s="47">
+        <f>R44</f>
+        <v>811</v>
       </c>
       <c r="O28" t="s">
         <v>54</v>
@@ -29829,7 +29868,7 @@
       <c r="C29" s="154"/>
       <c r="D29" s="158">
         <f>SUM(D6:D28)</f>
-        <v>0</v>
+        <v>416738</v>
       </c>
       <c r="F29" s="160" t="s">
         <v>55</v>
@@ -29837,7 +29876,7 @@
       <c r="G29" s="161"/>
       <c r="H29" s="164">
         <f>H15-H16-H17-H18-H19-H20-H22-H23-H24+H26+H27+H28</f>
-        <v>0</v>
+        <v>300525.5</v>
       </c>
       <c r="I29" s="165"/>
       <c r="J29" s="166"/>
@@ -29976,10 +30015,12 @@
       <c r="F34" s="12">
         <v>1000</v>
       </c>
-      <c r="G34" s="40"/>
+      <c r="G34" s="40">
+        <v>51</v>
+      </c>
       <c r="H34" s="192">
         <f t="shared" ref="H34:H39" si="2">F34*G34</f>
-        <v>0</v>
+        <v>51000</v>
       </c>
       <c r="I34" s="193"/>
       <c r="J34" s="194"/>
@@ -30002,18 +30043,22 @@
       <c r="B35" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="52"/>
+      <c r="C35" s="52">
+        <v>2</v>
+      </c>
       <c r="D35" s="30">
         <f>C35*84</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="F35" s="58">
         <v>500</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41">
+        <v>20</v>
+      </c>
       <c r="H35" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I35" s="193"/>
       <c r="J35" s="194"/>
@@ -30070,18 +30115,22 @@
       <c r="B37" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="53">
+        <v>1005</v>
+      </c>
       <c r="D37" s="12">
         <f>C37*111</f>
-        <v>0</v>
+        <v>111555</v>
       </c>
       <c r="F37" s="12">
         <v>100</v>
       </c>
-      <c r="G37" s="39"/>
+      <c r="G37" s="39">
+        <v>41</v>
+      </c>
       <c r="H37" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="I37" s="193"/>
       <c r="J37" s="194"/>
@@ -30104,18 +30153,22 @@
       <c r="B38" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="54">
+        <v>4</v>
+      </c>
       <c r="D38" s="12">
         <f>C38*84</f>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="F38" s="30">
         <v>50</v>
       </c>
-      <c r="G38" s="39"/>
+      <c r="G38" s="39">
+        <v>15</v>
+      </c>
       <c r="H38" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I38" s="193"/>
       <c r="J38" s="194"/>
@@ -30138,10 +30191,12 @@
       <c r="B39" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="52">
+        <v>2</v>
+      </c>
       <c r="D39" s="31">
         <f>C39*4.5</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F39" s="12">
         <v>20</v>
@@ -30172,10 +30227,12 @@
       <c r="B40" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="63">
+        <v>5</v>
+      </c>
       <c r="D40" s="12">
         <f>C40*111</f>
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="F40" s="12">
         <v>10</v>
@@ -30203,10 +30260,12 @@
       <c r="B41" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="10"/>
+      <c r="C41" s="10">
+        <v>1</v>
+      </c>
       <c r="D41" s="12">
         <f>C41*84</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F41" s="12">
         <v>5</v>
@@ -30235,10 +30294,12 @@
       <c r="B42" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="11"/>
+      <c r="C42" s="11">
+        <v>30</v>
+      </c>
       <c r="D42" s="12">
         <f>C42*2.25</f>
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="F42" s="39" t="s">
         <v>79</v>
@@ -30299,9 +30360,15 @@
         <f>C44*120</f>
         <v>0</v>
       </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="176"/>
+      <c r="F44" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="H44" s="176">
+        <v>234325</v>
+      </c>
       <c r="I44" s="176"/>
       <c r="J44" s="176"/>
       <c r="K44" s="21"/>
@@ -30312,11 +30379,11 @@
         <v>700</v>
       </c>
       <c r="Q44" s="4">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="R44" s="5">
         <f>Q44+P44</f>
-        <v>820</v>
+        <v>811</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -30324,10 +30391,12 @@
       <c r="B45" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="33"/>
+      <c r="C45" s="33">
+        <v>1</v>
+      </c>
       <c r="D45" s="12">
         <f>C45*84</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="62"/>
@@ -30344,10 +30413,12 @@
       <c r="B46" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="81">
+        <v>34</v>
+      </c>
       <c r="D46" s="12">
         <f>C46*1.5</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="62"/>
@@ -30381,10 +30452,12 @@
       <c r="B48" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="10">
+        <v>9</v>
+      </c>
       <c r="D48" s="12">
         <f>C48*78</f>
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="F48" s="59"/>
       <c r="G48" s="59"/>
@@ -30419,7 +30492,7 @@
       </c>
       <c r="G49" s="164">
         <f>H34+H35+H36+H37+H38+H39+H40+H41+G42+H44+H45+H46</f>
-        <v>0</v>
+        <v>300175</v>
       </c>
       <c r="H49" s="165"/>
       <c r="I49" s="165"/>
@@ -30443,10 +30516,12 @@
       <c r="B50" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="11"/>
+      <c r="C50" s="11">
+        <v>10</v>
+      </c>
       <c r="D50" s="12">
         <f>C50*1.5</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F50" s="218"/>
       <c r="G50" s="167"/>
@@ -30472,7 +30547,7 @@
       </c>
       <c r="G51" s="231">
         <f>G49-H29</f>
-        <v>0</v>
+        <v>-350.5</v>
       </c>
       <c r="H51" s="232"/>
       <c r="I51" s="232"/>
@@ -30543,7 +30618,7 @@
       <c r="C54" s="206"/>
       <c r="D54" s="209">
         <f>SUM(D34:D53)</f>
-        <v>0</v>
+        <v>113626.5</v>
       </c>
       <c r="F54" s="21"/>
       <c r="J54" s="34"/>
@@ -30813,10 +30888,12 @@
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>450</v>
+      </c>
       <c r="D6" s="13">
         <f t="shared" ref="D6:D28" si="1">C6*L6</f>
-        <v>0</v>
+        <v>342450</v>
       </c>
       <c r="F6" s="115" t="s">
         <v>16</v>
@@ -30901,10 +30978,12 @@
       <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10">
+        <v>20</v>
+      </c>
       <c r="D9" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14660</v>
       </c>
       <c r="F9" s="116"/>
       <c r="G9" s="128"/>
@@ -31019,10 +31098,12 @@
       <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10">
+        <v>15</v>
+      </c>
       <c r="D13" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4605</v>
       </c>
       <c r="F13" s="137" t="s">
         <v>36</v>
@@ -31030,7 +31111,7 @@
       <c r="G13" s="138"/>
       <c r="H13" s="139">
         <f>D29</f>
-        <v>0</v>
+        <v>364269</v>
       </c>
       <c r="I13" s="140"/>
       <c r="J13" s="141"/>
@@ -31053,10 +31134,12 @@
       <c r="B14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10">
+        <v>11</v>
+      </c>
       <c r="D14" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F14" s="142" t="s">
         <v>39</v>
@@ -31064,7 +31147,7 @@
       <c r="G14" s="143"/>
       <c r="H14" s="144">
         <f>D54</f>
-        <v>0</v>
+        <v>53587.5</v>
       </c>
       <c r="I14" s="145"/>
       <c r="J14" s="146"/>
@@ -31102,7 +31185,7 @@
       <c r="G15" s="138"/>
       <c r="H15" s="148">
         <f>H13-H14</f>
-        <v>0</v>
+        <v>310681.5</v>
       </c>
       <c r="I15" s="149"/>
       <c r="J15" s="150"/>
@@ -31140,7 +31223,10 @@
       <c r="G16" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="151"/>
+      <c r="H16" s="151">
+        <f>2064</f>
+        <v>2064</v>
+      </c>
       <c r="I16" s="151"/>
       <c r="J16" s="151"/>
       <c r="L16" s="6">
@@ -31467,9 +31553,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="64"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="180"/>
+      <c r="F26" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="59">
+        <v>8133</v>
+      </c>
+      <c r="H26" s="180">
+        <v>131647</v>
+      </c>
       <c r="I26" s="181"/>
       <c r="J26" s="182"/>
       <c r="L26" s="7">
@@ -31525,18 +31617,21 @@
       <c r="B28" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="10">
+        <v>3</v>
+      </c>
       <c r="D28" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2433</v>
       </c>
       <c r="F28" s="93"/>
       <c r="G28" s="61"/>
       <c r="H28" s="186"/>
       <c r="I28" s="187"/>
       <c r="J28" s="188"/>
-      <c r="L28" s="7">
-        <v>785</v>
+      <c r="L28" s="47">
+        <f>R44</f>
+        <v>811</v>
       </c>
       <c r="O28" t="s">
         <v>54</v>
@@ -31560,7 +31655,7 @@
       <c r="C29" s="154"/>
       <c r="D29" s="158">
         <f>SUM(D6:D28)</f>
-        <v>0</v>
+        <v>364269</v>
       </c>
       <c r="F29" s="160" t="s">
         <v>55</v>
@@ -31568,7 +31663,7 @@
       <c r="G29" s="161"/>
       <c r="H29" s="164">
         <f>H15-H16-H17-H18-H19-H20-H22-H23-H24+H26+H27</f>
-        <v>0</v>
+        <v>440264.5</v>
       </c>
       <c r="I29" s="165"/>
       <c r="J29" s="166"/>
@@ -31707,10 +31802,12 @@
       <c r="F34" s="12">
         <v>1000</v>
       </c>
-      <c r="G34" s="74"/>
+      <c r="G34" s="74">
+        <v>243</v>
+      </c>
       <c r="H34" s="192">
         <f>F34*G34</f>
-        <v>0</v>
+        <v>243000</v>
       </c>
       <c r="I34" s="193"/>
       <c r="J34" s="194"/>
@@ -31741,10 +31838,12 @@
       <c r="F35" s="58">
         <v>500</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41">
+        <v>101</v>
+      </c>
       <c r="H35" s="192">
         <f t="shared" ref="H35:H39" si="2">F35*G35</f>
-        <v>0</v>
+        <v>50500</v>
       </c>
       <c r="I35" s="193"/>
       <c r="J35" s="194"/>
@@ -31801,18 +31900,22 @@
       <c r="B37" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="53">
+        <v>466</v>
+      </c>
       <c r="D37" s="12">
         <f>C37*111</f>
-        <v>0</v>
+        <v>51726</v>
       </c>
       <c r="F37" s="12">
         <v>100</v>
       </c>
-      <c r="G37" s="39"/>
+      <c r="G37" s="39">
+        <v>128</v>
+      </c>
       <c r="H37" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12800</v>
       </c>
       <c r="I37" s="193"/>
       <c r="J37" s="194"/>
@@ -31835,18 +31938,22 @@
       <c r="B38" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="54">
+        <v>8</v>
+      </c>
       <c r="D38" s="12">
         <f>C38*84</f>
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="F38" s="30">
         <v>50</v>
       </c>
-      <c r="G38" s="39"/>
+      <c r="G38" s="39">
+        <v>46</v>
+      </c>
       <c r="H38" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="I38" s="193"/>
       <c r="J38" s="194"/>
@@ -31869,10 +31976,12 @@
       <c r="B39" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="52">
+        <v>2</v>
+      </c>
       <c r="D39" s="31">
         <f>C39*4.5</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F39" s="12">
         <v>20</v>
@@ -31974,7 +32083,9 @@
       <c r="F42" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="192"/>
+      <c r="G42" s="192">
+        <v>71</v>
+      </c>
       <c r="H42" s="193"/>
       <c r="I42" s="193"/>
       <c r="J42" s="194"/>
@@ -32030,9 +32141,15 @@
         <f>C44*120</f>
         <v>0</v>
       </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="176"/>
+      <c r="F44" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="H44" s="176">
+        <v>131647</v>
+      </c>
       <c r="I44" s="176"/>
       <c r="J44" s="176"/>
       <c r="K44" s="21"/>
@@ -32043,11 +32160,11 @@
         <v>700</v>
       </c>
       <c r="Q44" s="4">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="R44" s="5">
         <f>Q44+P44</f>
-        <v>820</v>
+        <v>811</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -32112,10 +32229,12 @@
       <c r="B48" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="10">
+        <v>10</v>
+      </c>
       <c r="D48" s="12">
         <f>C48*78</f>
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="F48" s="59"/>
       <c r="G48" s="59"/>
@@ -32140,17 +32259,19 @@
       <c r="B49" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="33"/>
+      <c r="C49" s="33">
+        <v>9</v>
+      </c>
       <c r="D49" s="12">
         <f>C49*42</f>
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="F49" s="217" t="s">
         <v>86</v>
       </c>
       <c r="G49" s="164">
         <f>H34+H35+H36+H37+H38+H39+H40+H41+G42+H44+H45+H46</f>
-        <v>0</v>
+        <v>440318</v>
       </c>
       <c r="H49" s="165"/>
       <c r="I49" s="165"/>
@@ -32174,10 +32295,12 @@
       <c r="B50" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="11"/>
+      <c r="C50" s="11">
+        <v>15</v>
+      </c>
       <c r="D50" s="12">
         <f>C50*1.5</f>
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="F50" s="218"/>
       <c r="G50" s="167"/>
@@ -32203,7 +32326,7 @@
       </c>
       <c r="G51" s="221">
         <f>G49-H29</f>
-        <v>0</v>
+        <v>53.5</v>
       </c>
       <c r="H51" s="222"/>
       <c r="I51" s="222"/>
@@ -32274,7 +32397,7 @@
       <c r="C54" s="206"/>
       <c r="D54" s="209">
         <f>SUM(D34:D53)</f>
-        <v>0</v>
+        <v>53587.5</v>
       </c>
       <c r="F54" s="21"/>
       <c r="J54" s="34"/>
@@ -32544,10 +32667,12 @@
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>380</v>
+      </c>
       <c r="D6" s="13">
         <f t="shared" ref="D6:D28" si="1">C6*L6</f>
-        <v>0</v>
+        <v>289180</v>
       </c>
       <c r="F6" s="115" t="s">
         <v>16</v>
@@ -32580,10 +32705,12 @@
       <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10">
+        <v>19</v>
+      </c>
       <c r="D7" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14839</v>
       </c>
       <c r="F7" s="116"/>
       <c r="G7" s="120"/>
@@ -32604,10 +32731,12 @@
       <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
       <c r="D8" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2186</v>
       </c>
       <c r="F8" s="123" t="s">
         <v>21</v>
@@ -32632,10 +32761,12 @@
       <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10">
+        <v>84</v>
+      </c>
       <c r="D9" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>61572</v>
       </c>
       <c r="F9" s="116"/>
       <c r="G9" s="128"/>
@@ -32656,10 +32787,12 @@
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
       <c r="D10" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1032</v>
       </c>
       <c r="F10" s="115" t="s">
         <v>26</v>
@@ -32716,10 +32849,13 @@
       <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10">
+        <f>3+1</f>
+        <v>4</v>
+      </c>
       <c r="D12" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3968</v>
       </c>
       <c r="F12" s="134" t="s">
         <v>33</v>
@@ -32750,10 +32886,12 @@
       <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10">
+        <v>14</v>
+      </c>
       <c r="D13" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4298</v>
       </c>
       <c r="F13" s="137" t="s">
         <v>36</v>
@@ -32761,7 +32899,7 @@
       <c r="G13" s="138"/>
       <c r="H13" s="139">
         <f>D29</f>
-        <v>0</v>
+        <v>383641</v>
       </c>
       <c r="I13" s="140"/>
       <c r="J13" s="141"/>
@@ -32784,10 +32922,12 @@
       <c r="B14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10">
+        <v>6</v>
+      </c>
       <c r="D14" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F14" s="142" t="s">
         <v>39</v>
@@ -32795,7 +32935,7 @@
       <c r="G14" s="143"/>
       <c r="H14" s="144">
         <f>D54</f>
-        <v>0</v>
+        <v>52228.5</v>
       </c>
       <c r="I14" s="145"/>
       <c r="J14" s="146"/>
@@ -32833,7 +32973,7 @@
       <c r="G15" s="138"/>
       <c r="H15" s="148">
         <f>H13-H14</f>
-        <v>0</v>
+        <v>331412.5</v>
       </c>
       <c r="I15" s="149"/>
       <c r="J15" s="150"/>
@@ -32871,7 +33011,9 @@
       <c r="G16" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="151"/>
+      <c r="H16" s="151">
+        <v>1248</v>
+      </c>
       <c r="I16" s="151"/>
       <c r="J16" s="151"/>
       <c r="L16" s="6">
@@ -32974,7 +33116,9 @@
       <c r="G19" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="238"/>
+      <c r="H19" s="238">
+        <v>50</v>
+      </c>
       <c r="I19" s="238"/>
       <c r="J19" s="238"/>
       <c r="L19" s="6">
@@ -33020,12 +33164,15 @@
     <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="113"/>
       <c r="B21" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="10"/>
+        <v>135</v>
+      </c>
+      <c r="C21" s="10">
+        <f>5+5</f>
+        <v>10</v>
+      </c>
       <c r="D21" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="F21" s="69" t="s">
         <v>99</v>
@@ -33196,9 +33343,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="64"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="180"/>
+      <c r="F26" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="59">
+        <v>7798</v>
+      </c>
+      <c r="H26" s="180">
+        <v>173644</v>
+      </c>
       <c r="I26" s="181"/>
       <c r="J26" s="182"/>
       <c r="L26" s="7">
@@ -33289,7 +33442,7 @@
       <c r="C29" s="154"/>
       <c r="D29" s="158">
         <f>SUM(D6:D28)</f>
-        <v>0</v>
+        <v>383641</v>
       </c>
       <c r="F29" s="160" t="s">
         <v>55</v>
@@ -33297,7 +33450,7 @@
       <c r="G29" s="161"/>
       <c r="H29" s="164">
         <f>H15-H16-H17-H18-H19-H20-H22-H23-H24+H26+H27</f>
-        <v>0</v>
+        <v>503758.5</v>
       </c>
       <c r="I29" s="165"/>
       <c r="J29" s="166"/>
@@ -33428,18 +33581,22 @@
       <c r="B34" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="51"/>
+      <c r="C34" s="51">
+        <v>1</v>
+      </c>
       <c r="D34" s="30">
         <f>C34*120</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F34" s="12">
         <v>1000</v>
       </c>
-      <c r="G34" s="74"/>
+      <c r="G34" s="74">
+        <v>148</v>
+      </c>
       <c r="H34" s="192">
         <f>F34*G34</f>
-        <v>0</v>
+        <v>148000</v>
       </c>
       <c r="I34" s="193"/>
       <c r="J34" s="194"/>
@@ -33470,10 +33627,12 @@
       <c r="F35" s="58">
         <v>500</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41">
+        <v>20</v>
+      </c>
       <c r="H35" s="192">
         <f>F35*G35</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I35" s="193"/>
       <c r="J35" s="194"/>
@@ -33502,10 +33661,12 @@
       <c r="F36" s="12">
         <v>200</v>
       </c>
-      <c r="G36" s="37"/>
+      <c r="G36" s="37">
+        <v>3</v>
+      </c>
       <c r="H36" s="192">
         <f t="shared" ref="H36:H39" si="2">F36*G36</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I36" s="193"/>
       <c r="J36" s="194"/>
@@ -33530,18 +33691,22 @@
       <c r="B37" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="53">
+        <v>429</v>
+      </c>
       <c r="D37" s="12">
         <f>C37*111</f>
-        <v>0</v>
+        <v>47619</v>
       </c>
       <c r="F37" s="12">
         <v>100</v>
       </c>
-      <c r="G37" s="39"/>
+      <c r="G37" s="39">
+        <v>151</v>
+      </c>
       <c r="H37" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15100</v>
       </c>
       <c r="I37" s="193"/>
       <c r="J37" s="194"/>
@@ -33564,18 +33729,22 @@
       <c r="B38" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="54">
+        <v>14</v>
+      </c>
       <c r="D38" s="12">
         <f>C38*84</f>
-        <v>0</v>
+        <v>1176</v>
       </c>
       <c r="F38" s="30">
         <v>50</v>
       </c>
-      <c r="G38" s="39"/>
+      <c r="G38" s="39">
+        <v>335</v>
+      </c>
       <c r="H38" s="192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16750</v>
       </c>
       <c r="I38" s="193"/>
       <c r="J38" s="194"/>
@@ -33598,10 +33767,12 @@
       <c r="B39" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="52">
+        <v>2</v>
+      </c>
       <c r="D39" s="31">
         <f>C39*4.5</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F39" s="12">
         <v>20</v>
@@ -33632,10 +33803,12 @@
       <c r="B40" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="63">
+        <v>17</v>
+      </c>
       <c r="D40" s="12">
         <f>C40*111</f>
-        <v>0</v>
+        <v>1887</v>
       </c>
       <c r="F40" s="12">
         <v>10</v>
@@ -33695,15 +33868,19 @@
       <c r="B42" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="11"/>
+      <c r="C42" s="11">
+        <v>4</v>
+      </c>
       <c r="D42" s="12">
         <f>C42*2.25</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F42" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="192"/>
+      <c r="G42" s="192">
+        <v>175</v>
+      </c>
       <c r="H42" s="193"/>
       <c r="I42" s="193"/>
       <c r="J42" s="194"/>
@@ -33754,14 +33931,22 @@
       <c r="B44" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="10">
+        <v>5</v>
+      </c>
       <c r="D44" s="12">
         <f>C44*120</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="176"/>
+        <v>600</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="H44" s="176">
+        <v>139318</v>
+      </c>
       <c r="I44" s="176"/>
       <c r="J44" s="176"/>
       <c r="K44" s="21"/>
@@ -33784,14 +33969,22 @@
       <c r="B45" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="33"/>
+      <c r="C45" s="33">
+        <v>2</v>
+      </c>
       <c r="D45" s="12">
         <f>C45*84</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="176"/>
+        <v>168</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="H45" s="176">
+        <v>173644</v>
+      </c>
       <c r="I45" s="176"/>
       <c r="J45" s="176"/>
       <c r="K45" s="21"/>
@@ -33804,10 +33997,12 @@
       <c r="B46" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="81">
+        <v>9</v>
+      </c>
       <c r="D46" s="12">
         <f>C46*1.5</f>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="62"/>
@@ -33841,10 +34036,12 @@
       <c r="B48" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="10">
+        <v>5</v>
+      </c>
       <c r="D48" s="12">
         <f>C48*78</f>
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="F48" s="59"/>
       <c r="G48" s="59"/>
@@ -33869,17 +34066,19 @@
       <c r="B49" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="33"/>
+      <c r="C49" s="33">
+        <v>5</v>
+      </c>
       <c r="D49" s="12">
         <f>C49*42</f>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="F49" s="217" t="s">
         <v>86</v>
       </c>
       <c r="G49" s="164">
         <f>H34+H35+H36+H37+H38+H39+H40+H41+G42+H44+H45+H46</f>
-        <v>0</v>
+        <v>503587</v>
       </c>
       <c r="H49" s="165"/>
       <c r="I49" s="165"/>
@@ -33903,10 +34102,12 @@
       <c r="B50" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="11"/>
+      <c r="C50" s="11">
+        <v>18</v>
+      </c>
       <c r="D50" s="12">
         <f>C50*1.5</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F50" s="218"/>
       <c r="G50" s="167"/>
@@ -33932,7 +34133,7 @@
       </c>
       <c r="G51" s="231">
         <f>G49-H29</f>
-        <v>0</v>
+        <v>-171.5</v>
       </c>
       <c r="H51" s="232"/>
       <c r="I51" s="232"/>
@@ -34003,7 +34204,7 @@
       <c r="C54" s="206"/>
       <c r="D54" s="209">
         <f>SUM(D34:D53)</f>
-        <v>0</v>
+        <v>52228.5</v>
       </c>
       <c r="F54" s="21"/>
       <c r="J54" s="34"/>

--- a/GBDS JANUARY FILES 2026/SCRR CALCULATOR - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SCRR CALCULATOR - JANUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470CA9C5-815C-4892-879F-880FE9ADB8FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0C0115-2B1B-4311-9312-496EF9B4E60D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="22" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="25" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(January 2025)" sheetId="814" r:id="rId1"/>
@@ -20466,7 +20466,7 @@
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J5"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46517,7 +46517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627C24E1-A897-47E6-A4FF-FF94A239BFE6}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J5"/>
     </sheetView>
   </sheetViews>
@@ -50051,7 +50051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C463F3F1-5256-4795-A607-ECE807DB6149}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J5"/>
     </sheetView>
   </sheetViews>
@@ -55203,7 +55203,7 @@
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J5"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55953,8 +55953,8 @@
       <c r="I25" s="183"/>
       <c r="J25" s="184"/>
       <c r="L25" s="47">
-        <f>674/6</f>
-        <v>112.33333333333333</v>
+        <f>700/6+4.5</f>
+        <v>121.16666666666667</v>
       </c>
       <c r="O25" t="s">
         <v>51</v>
